--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2969874.300266576</v>
+        <v>2967986.718750174</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>583929.2276177744</v>
+        <v>691444.5677170062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>22.92669617404129</v>
       </c>
       <c r="H2" t="n">
-        <v>195.9544420980504</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>126.6375844284732</v>
+        <v>51.4203112633859</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>69.40409848149919</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>6.283679164003906</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.2491677474088</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>128.7835007017901</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>173.1041038732777</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.6625955097716</v>
+        <v>80.09089934704872</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.84821780340894</v>
+        <v>187.832639942108</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,10 +1904,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1848299532894</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750031</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,10 +2296,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>131.0137802721648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>26.97444673954966</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532044</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>22.15389418979724</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>82.16809304408146</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437429</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>55.21598883571489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329093</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463137</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.08070321196</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.08070321196</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="D2" t="n">
-        <v>1620.08070321196</v>
+        <v>968.7478615425575</v>
       </c>
       <c r="E2" t="n">
-        <v>1234.292450613716</v>
+        <v>968.7478615425575</v>
       </c>
       <c r="F2" t="n">
-        <v>823.3065458241085</v>
+        <v>557.76195675295</v>
       </c>
       <c r="G2" t="n">
-        <v>405.3427377222954</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>422.6486545462877</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="U4" t="n">
-        <v>422.6486545462877</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="V4" t="n">
-        <v>422.6486545462877</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="W4" t="n">
-        <v>422.6486545462877</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>130.9936325508802</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>124.0481318016768</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2690.801940347511</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2690.801940347511</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2690.801940347511</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>363.7239216122614</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>215.8108280298683</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>215.8108280298683</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.9693282917581</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>594.0068113513464</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>235.7411127445959</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>235.7411127445959</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>228.7956119953924</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3777.748724048913</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C13" t="n">
-        <v>3777.748724048913</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>3777.748724048913</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>3777.748724048913</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>3777.748724048913</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>3609.573402368733</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>4637.069157803799</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>4637.069157803799</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W13" t="n">
-        <v>4347.651987766838</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="X13" t="n">
-        <v>4119.662436868821</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="Y13" t="n">
-        <v>3959.397188879153</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.483727322136</v>
+        <v>1309.18633122244</v>
       </c>
       <c r="T16" t="n">
-        <v>1216.698312111641</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U16" t="n">
-        <v>1216.698312111641</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="V16" t="n">
-        <v>1216.698312111641</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W16" t="n">
-        <v>927.2811420746807</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>927.2811420746807</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.4885629311506</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5510,46 +5510,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>237.1439506606956</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>648.0342195052083</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735811</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.080556059568</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.080556059568</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.080556059568</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.080556059568</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.080556059568</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>446.7290208898078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.7290208898078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5762,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765189</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>653.7450546864533</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>653.7450546864533</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>727.6476863320729</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765181</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706312</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,31 +6449,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542165</v>
+        <v>565.4200295030878</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542165</v>
+        <v>543.0423586043028</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542165</v>
+        <v>448.6865844733379</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723161</v>
+        <v>356.5343561723157</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557764</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818914</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652447</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030855</v>
+        <v>565.4200295030878</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,16 +6716,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527475</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506728</v>
@@ -6844,25 +6844,25 @@
         <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504514</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7400,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2247.208287113773</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,16 +23419,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.9220578423232</v>
+        <v>138.4937540050461</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>140.0725921801943</v>
+        <v>10.08817004149528</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3087385100882261</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338615</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>121.1238630516632</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.98990566424308</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.39383318338656</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>89.88967028027349</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896554</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9.062612973930754</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897917</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934491</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="H2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="K2" t="n">
-        <v>630574.3128851679</v>
+        <v>630574.3128851687</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="M2" t="n">
+        <v>636307.3716448202</v>
+      </c>
+      <c r="N2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="O2" t="n">
         <v>636307.3716448201</v>
-      </c>
-      <c r="N2" t="n">
-        <v>636307.3716448196</v>
-      </c>
-      <c r="O2" t="n">
-        <v>636307.3716448203</v>
       </c>
       <c r="P2" t="n">
         <v>636307.3716448202</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758359</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758436</v>
+        <v>787.7936905758902</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758476</v>
+        <v>787.7936905758875</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575885</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477237</v>
+        <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189633</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137534</v>
+        <v>-175578.7248137532</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.1544007913</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007914</v>
+        <v>414389.1544007913</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352273988</v>
+        <v>-11937.57264871214</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.9229541562</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541561</v>
+        <v>513222.4638281841</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541558</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541558</v>
+        <v>513222.4638281845</v>
       </c>
       <c r="J6" t="n">
-        <v>336896.7037615633</v>
+        <v>336799.2446355909</v>
       </c>
       <c r="K6" t="n">
-        <v>470831.0828473272</v>
+        <v>470812.5891093935</v>
       </c>
       <c r="L6" t="n">
-        <v>505042.7780920316</v>
+        <v>505042.7780920317</v>
       </c>
       <c r="M6" t="n">
-        <v>380584.6696590612</v>
+        <v>380584.6696590613</v>
       </c>
       <c r="N6" t="n">
-        <v>515385.6848928979</v>
+        <v>515385.6848928977</v>
       </c>
       <c r="O6" t="n">
-        <v>515385.6848928986</v>
+        <v>515385.6848928983</v>
       </c>
       <c r="P6" t="n">
-        <v>471223.0795900529</v>
+        <v>471223.0795900527</v>
       </c>
     </row>
   </sheetData>
@@ -26704,13 +26704,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108371</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>390.8574738467537</v>
       </c>
       <c r="H2" t="n">
-        <v>127.9683306663068</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>98.39752102961108</v>
+        <v>173.6147941946984</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>344.3800715392958</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.1646411936539</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>7.060634511642149</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>83.3620382482288</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>240.6800661475173</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28624,10 +28624,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516343</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>315.8821359054327</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,16 +32242,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,25 +32312,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>142.0868531448536</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>213.9849829127208</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731435</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,25 +33497,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>128.9008123014174</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,25 +34357,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>548.1681014290177</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700517</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>141.3402618185957</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>537.5560127407024</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187482</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>728.4316101333637</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>380.1668871337025</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
